--- a/Py/get_html/Get_Price/Price.xlsx
+++ b/Py/get_html/Get_Price/Price.xlsx
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.026548672566371" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>56932.38</v>
+        <v>60966.86</v>
       </c>
     </row>
     <row r="3">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2507.7</v>
+        <v>2677.99</v>
       </c>
     </row>
     <row r="4">
@@ -1271,7 +1271,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="B5" s="0" t="n">
@@ -1281,21 +1281,21 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.9998</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>494.27</v>
+        <v>512.13</v>
       </c>
     </row>
   </sheetData>
